--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23801"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_79AE1F478A6FDD14ECE8A033D372420E206F95FB" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{7CECDBE8-C06A-410B-9BD5-70EB03039A65}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="18465" windowHeight="12196" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -51,7 +52,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -149,7 +150,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -224,6 +225,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -259,6 +277,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -434,20 +469,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H228"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="G54" sqref="G54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" style="5"/>
     <col min="2" max="8" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -473,7 +508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A2" s="1">
         <v>77.83</v>
       </c>
@@ -491,7 +526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
         <v>5.37</v>
       </c>
@@ -511,7 +546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
         <v>23.29</v>
       </c>
@@ -531,7 +566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
         <v>20</v>
       </c>
@@ -549,7 +584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
         <v>4.66</v>
       </c>
@@ -571,7 +606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
         <v>14.28</v>
       </c>
@@ -589,7 +624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
         <v>5.4</v>
       </c>
@@ -609,7 +644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A9" s="1">
         <v>13.016</v>
       </c>
@@ -631,7 +666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A10" s="1">
         <v>14.989000000000001</v>
       </c>
@@ -651,7 +686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A11" s="1">
         <v>37.069000000000003</v>
       </c>
@@ -671,7 +706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A12" s="1">
         <v>31.91</v>
       </c>
@@ -693,7 +728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A13" s="1">
         <v>10.864000000000001</v>
       </c>
@@ -711,7 +746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A14" s="1">
         <v>73.480999999999995</v>
       </c>
@@ -733,7 +768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A15" s="1">
         <v>10.035</v>
       </c>
@@ -755,7 +790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A16" s="1">
         <v>21.91</v>
       </c>
@@ -775,7 +810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A17" s="1">
         <v>46.2</v>
       </c>
@@ -799,7 +834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A18" s="1">
         <v>214</v>
       </c>
@@ -823,7 +858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A19" s="1">
         <v>6.78</v>
       </c>
@@ -845,7 +880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:8" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A20" s="1">
         <v>10.5</v>
       </c>
@@ -867,7 +902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:8" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A21" s="1">
         <v>8.3000000000000007</v>
       </c>
@@ -889,7 +924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:8" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A22" s="1">
         <v>27.75</v>
       </c>
@@ -911,7 +946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:8" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A23" s="1">
         <v>5.0999999999999996</v>
       </c>
@@ -931,7 +966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:8" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A24" s="1">
         <v>8.4390000000000001</v>
       </c>
@@ -951,7 +986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:8" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A25" s="1">
         <v>16.93</v>
       </c>
@@ -975,7 +1010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:8" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A26" s="1">
         <v>43.673000000000002</v>
       </c>
@@ -997,7 +1032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:8" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A27" s="1">
         <v>8.5730000000000004</v>
       </c>
@@ -1021,7 +1056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:8" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A28" s="1">
         <v>16.850000000000001</v>
       </c>
@@ -1045,7 +1080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:8" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A29" s="1">
         <v>56.174999999999997</v>
       </c>
@@ -1067,7 +1102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:8" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -1091,7 +1126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:8" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A31" s="1">
         <v>41.28</v>
       </c>
@@ -1113,7 +1148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:8" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A32" s="1">
         <v>9.6</v>
       </c>
@@ -1135,7 +1170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:8" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A33" s="1">
         <v>9.44</v>
       </c>
@@ -1157,7 +1192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:8" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A34" s="1">
         <v>17.722000000000001</v>
       </c>
@@ -1179,7 +1214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:8" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A35" s="1">
         <v>15.34</v>
       </c>
@@ -1199,7 +1234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:8" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A36" s="1">
         <v>21.78</v>
       </c>
@@ -1221,7 +1256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:8" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A37" s="1">
         <v>13.284000000000001</v>
       </c>
@@ -1241,7 +1276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:8" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A38" s="1">
         <v>23.11</v>
       </c>
@@ -1265,7 +1300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:8" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A39" s="1">
         <v>13.99</v>
       </c>
@@ -1285,7 +1320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:8" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A40" s="1">
         <v>11.82</v>
       </c>
@@ -1307,7 +1342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:8" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A41" s="2">
         <v>19.27</v>
       </c>
@@ -1325,7 +1360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:8" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A42" s="2">
         <v>11.4</v>
       </c>
@@ -1345,7 +1380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:8" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A43" s="2">
         <v>71</v>
       </c>
@@ -1363,7 +1398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:8" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A44" s="2">
         <v>13.9</v>
       </c>
@@ -1379,7 +1414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:8" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A45" s="2">
         <v>52.625</v>
       </c>
@@ -1395,7 +1430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:8" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A46" s="2">
         <v>20.253</v>
       </c>
@@ -1417,7 +1452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:8" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A47" s="2">
         <v>39.630000000000003</v>
       </c>
@@ -1433,7 +1468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:8" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A48" s="2">
         <v>5.68</v>
       </c>
@@ -1451,7 +1486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:8" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A49" s="2">
         <v>48.5</v>
       </c>
@@ -1471,7 +1506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:8" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A50" s="2">
         <v>18.45</v>
       </c>
@@ -1491,7 +1526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:8" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A51" s="2">
         <v>15.92</v>
       </c>
@@ -1511,7 +1546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:8" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A52" s="2">
         <v>104.369</v>
       </c>
@@ -1531,7 +1566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:8" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A53" s="2">
         <v>10.759</v>
       </c>
@@ -1547,7 +1582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:8" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A54" s="2">
         <v>62.4</v>
       </c>
@@ -1567,7 +1602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:8" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A55" s="2">
         <v>11.34</v>
       </c>
@@ -1587,7 +1622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:8" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A56" s="2">
         <v>27.38</v>
       </c>
@@ -1607,7 +1642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:8" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A57" s="2">
         <v>17.7</v>
       </c>
@@ -1625,7 +1660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:8" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A58" s="2">
         <v>42.863999999999997</v>
       </c>
@@ -1645,7 +1680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:8" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A59" s="2">
         <v>71.53</v>
       </c>
@@ -1665,7 +1700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:8" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A60" s="2">
         <v>28.1</v>
       </c>
@@ -1683,7 +1718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:8" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A61" s="2">
         <v>14.590999999999999</v>
       </c>
@@ -1701,7 +1736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:8" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A62" s="2">
         <v>32.4</v>
       </c>
@@ -1719,7 +1754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:8" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A63" s="2">
         <v>105.21</v>
       </c>
@@ -1739,7 +1774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:8" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A64" s="2">
         <v>79.97</v>
       </c>
@@ -1759,7 +1794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:8" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A65" s="2">
         <v>85.763000000000005</v>
       </c>
@@ -1779,7 +1814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:8" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A66" s="2">
         <v>100.44799999999999</v>
       </c>
@@ -1795,7 +1830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:8" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A67" s="2">
         <v>35</v>
       </c>
@@ -1813,7 +1848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:8" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A68" s="2">
         <v>675.53</v>
       </c>
@@ -1829,7 +1864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:8" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A69" s="2">
         <v>205</v>
       </c>
@@ -1849,7 +1884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:8" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A70" s="2">
         <v>71.099999999999994</v>
       </c>
@@ -1869,7 +1904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:8" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A71" s="2">
         <v>37.5</v>
       </c>
@@ -1889,7 +1924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:8" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A72" s="2">
         <v>188.7</v>
       </c>
@@ -1909,7 +1944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:8" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A73" s="2">
         <v>31.376999999999999</v>
       </c>
@@ -1927,7 +1962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:8" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A74" s="2">
         <v>74.38</v>
       </c>
@@ -1947,7 +1982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:8" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A75" s="2">
         <v>17.46</v>
       </c>
@@ -1967,7 +2002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:8" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A76" s="2">
         <v>30.286000000000001</v>
       </c>
@@ -1985,7 +2020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:8" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A77" s="2">
         <v>17.670000000000002</v>
       </c>
@@ -2005,7 +2040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:8" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A78" s="2">
         <v>57.009</v>
       </c>
@@ -2027,7 +2062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:8" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A79" s="2">
         <v>47.911000000000001</v>
       </c>
@@ -2047,7 +2082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:8" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A80" s="2">
         <v>18.643999999999998</v>
       </c>
@@ -2067,7 +2102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:8" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A81" s="2">
         <v>45.328000000000003</v>
       </c>
@@ -2089,7 +2124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:8" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A82" s="2">
         <v>72.39</v>
       </c>
@@ -2109,7 +2144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:8" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A83" s="2">
         <v>15</v>
       </c>
@@ -2129,7 +2164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:8" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A84" s="2">
         <v>38</v>
       </c>
@@ -2151,7 +2186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:8" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A85" s="2">
         <v>70.67</v>
       </c>
@@ -2169,7 +2204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:8" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A86" s="2">
         <v>22.02</v>
       </c>
@@ -2191,7 +2226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:8" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A87" s="2">
         <v>21.32</v>
       </c>
@@ -2211,7 +2246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:8" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A88" s="2">
         <v>27.3</v>
       </c>
@@ -2231,7 +2266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:8" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A89" s="2">
         <v>25.768999999999998</v>
       </c>
@@ -2251,7 +2286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:8" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A90" s="2">
         <v>20.3</v>
       </c>
@@ -2271,7 +2306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:8" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A91" s="2">
         <v>121.277</v>
       </c>
@@ -2289,7 +2324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:8" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A92" s="2">
         <v>26.3</v>
       </c>
@@ -2309,7 +2344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:8" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A93" s="2">
         <v>19.376999999999999</v>
       </c>
@@ -2327,7 +2362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:8" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A94" s="2">
         <v>10.56</v>
       </c>
@@ -2345,7 +2380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:8" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A95" s="2">
         <v>38.67</v>
       </c>
@@ -2365,7 +2400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:8" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A96" s="2">
         <v>17.896000000000001</v>
       </c>
@@ -2385,7 +2420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:8" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A97" s="2">
         <v>52.92</v>
       </c>
@@ -2403,7 +2438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:8" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A98" s="2">
         <v>36.816000000000003</v>
       </c>
@@ -2423,7 +2458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:8" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A99" s="2">
         <v>17.408999999999999</v>
       </c>
@@ -2443,7 +2478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:8" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A100" s="2">
         <v>204</v>
       </c>
@@ -2463,7 +2498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:8" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A101" s="2">
         <v>213.14599999999999</v>
       </c>
@@ -2483,7 +2518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:8" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A102" s="2">
         <v>39.369999999999997</v>
       </c>
@@ -2503,7 +2538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:8" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A103" s="2">
         <v>46.8</v>
       </c>
@@ -2523,7 +2558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:8" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A104" s="2">
         <v>133</v>
       </c>
@@ -2541,7 +2576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:8" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A105" s="2">
         <v>27.881</v>
       </c>
@@ -2561,7 +2596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:8" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A106" s="2">
         <v>80.5</v>
       </c>
@@ -2581,7 +2616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:8" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A107" s="2">
         <v>9.4890000000000008</v>
       </c>
@@ -2599,7 +2634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:8" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A108" s="2">
         <v>9.66</v>
       </c>
@@ -2623,7 +2658,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:8" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A109" s="2">
         <v>4.79</v>
       </c>
@@ -2641,7 +2676,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:8" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A110" s="2">
         <v>9.34</v>
       </c>
@@ -2661,7 +2696,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:8" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A111" s="2">
         <v>9.6999999999999993</v>
       </c>
@@ -2677,7 +2712,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:8" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
@@ -2691,7 +2726,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:8" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A113" s="2">
         <v>1.68</v>
       </c>
@@ -2709,7 +2744,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:8" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A114" s="2">
         <v>16.5</v>
       </c>
@@ -2727,7 +2762,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:8" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A115" s="2">
         <v>29.815000000000001</v>
       </c>
@@ -2747,7 +2782,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:8" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A116" s="2">
         <v>8.9640000000000004</v>
       </c>
@@ -2767,7 +2802,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:8" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A117" s="2">
         <v>11.22</v>
       </c>
@@ -2787,7 +2822,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:8" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A118" s="2">
         <v>4.5</v>
       </c>
@@ -2807,7 +2842,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:8" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A119" s="2">
         <v>29.353000000000002</v>
       </c>
@@ -2827,7 +2862,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:8" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A120" s="2">
         <v>7.4889999999999999</v>
       </c>
@@ -2847,7 +2882,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:8" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A121" s="2">
         <v>2.64</v>
       </c>
@@ -2867,7 +2902,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:8" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A122" s="2">
         <v>14.9</v>
       </c>
@@ -2885,7 +2920,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:8" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A123" s="2">
         <v>29.43</v>
       </c>
@@ -2905,7 +2940,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:8" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A124" s="2">
         <v>39.71</v>
       </c>
@@ -2925,7 +2960,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:8" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A125" s="2">
         <v>3.51</v>
       </c>
@@ -2945,7 +2980,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:8" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A126" s="2">
         <v>56.15</v>
       </c>
@@ -2965,7 +3000,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:8" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A127" s="2">
         <v>13.5</v>
       </c>
@@ -2985,7 +3020,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:8" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A128" s="2">
         <v>17.27</v>
       </c>
@@ -3005,7 +3040,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:8" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A129" s="2">
         <v>5.7</v>
       </c>
@@ -3025,7 +3060,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:8" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A130" s="2">
         <v>6.07</v>
       </c>
@@ -3047,7 +3082,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:8" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A131" s="2">
         <v>21.68</v>
       </c>
@@ -3067,7 +3102,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:8" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A132" s="2">
         <v>16.027000000000001</v>
       </c>
@@ -3087,7 +3122,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:8" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A133" s="2">
         <v>9.01</v>
       </c>
@@ -3107,7 +3142,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:8" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A134" s="2">
         <v>6.4530000000000003</v>
       </c>
@@ -3125,7 +3160,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:8" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A135" s="2">
         <v>21.8</v>
       </c>
@@ -3147,7 +3182,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:8" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A136" s="2">
         <v>12.016999999999999</v>
       </c>
@@ -3169,7 +3204,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:8" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A137" s="2">
         <v>6.67</v>
       </c>
@@ -3189,7 +3224,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:8" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A138" s="2">
         <v>7.4409999999999998</v>
       </c>
@@ -3211,7 +3246,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:8" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A139" s="2">
         <v>4.5279999999999996</v>
       </c>
@@ -3233,7 +3268,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:8" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A140" s="2">
         <v>23</v>
       </c>
@@ -3255,7 +3290,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:8" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A141" s="2">
         <v>545</v>
       </c>
@@ -3271,7 +3306,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:8" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A142" s="2">
         <v>11.35</v>
       </c>
@@ -3293,7 +3328,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:8" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A143" s="2">
         <v>4.43</v>
       </c>
@@ -3315,7 +3350,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:8" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A144" s="2">
         <v>25.58</v>
       </c>
@@ -3337,7 +3372,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:8" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A145" s="2">
         <v>1.26</v>
       </c>
@@ -3355,7 +3390,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:8" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A146" s="2">
         <v>12.43</v>
       </c>
@@ -3377,7 +3412,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:8" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A147" s="2">
         <v>13.98</v>
       </c>
@@ -3393,7 +3428,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:8" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A148" s="2">
         <v>4.9400000000000004</v>
       </c>
@@ -3415,7 +3450,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:8" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A149" s="2">
         <v>12.66</v>
       </c>
@@ -3437,7 +3472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:8" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A150" s="2">
         <v>37.5</v>
       </c>
@@ -3455,7 +3490,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:8" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A151" s="2">
         <v>7.1</v>
       </c>
@@ -3475,7 +3510,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:8" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A152" s="2">
         <v>3.96</v>
       </c>
@@ -3497,7 +3532,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:8" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A153" s="2">
         <v>5.51</v>
       </c>
@@ -3517,7 +3552,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:8" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A154" s="2">
         <v>16.748000000000001</v>
       </c>
@@ -3537,7 +3572,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:8" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A155" s="2">
         <v>10.413</v>
       </c>
@@ -3557,7 +3592,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:8" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A156" s="2">
         <v>4.7990000000000004</v>
       </c>
@@ -3577,7 +3612,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:8" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A157" s="2">
         <v>5.9</v>
       </c>
@@ -3599,7 +3634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:8" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A158" s="2">
         <v>14.648999999999999</v>
       </c>
@@ -3617,7 +3652,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:8" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A159" s="2">
         <v>9.77</v>
       </c>
@@ -3637,7 +3672,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:8" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A160" s="2">
         <v>12</v>
       </c>
@@ -3657,7 +3692,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:8" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A161" s="2">
         <v>11.61</v>
       </c>
@@ -3673,7 +3708,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:8" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A162" s="2">
         <v>7.0250000000000004</v>
       </c>
@@ -3695,7 +3730,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:8" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A163" s="2">
         <v>6</v>
       </c>
@@ -3713,7 +3748,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:8" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A164" s="2">
         <v>29.053999999999998</v>
       </c>
@@ -3731,7 +3766,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:8" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A165" s="2">
         <v>15</v>
       </c>
@@ -3749,7 +3784,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:8" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A166" s="2">
         <v>8.4320000000000004</v>
       </c>
@@ -3771,7 +3806,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:8" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A167" s="2">
         <v>4.59</v>
       </c>
@@ -3791,7 +3826,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:8" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A168" s="2">
         <v>5.58</v>
       </c>
@@ -3809,7 +3844,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:8" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A169" s="2">
         <v>12.1</v>
       </c>
@@ -3827,7 +3862,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:8" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A170" s="2">
         <v>11.180999999999999</v>
       </c>
@@ -3847,7 +3882,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:8" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A171" s="2">
         <v>9.8000000000000007</v>
       </c>
@@ -3867,7 +3902,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:8" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A172" s="2">
         <v>7.91</v>
       </c>
@@ -3887,7 +3922,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:8" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A173" s="2">
         <v>14.37</v>
       </c>
@@ -3909,7 +3944,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:8" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A174" s="2">
         <v>6.1</v>
       </c>
@@ -3929,7 +3964,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:8" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A175" s="2">
         <v>3.65</v>
       </c>
@@ -3947,7 +3982,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:8" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A176" s="2">
         <v>6.444</v>
       </c>
@@ -3967,7 +4002,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:8" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A177" s="2">
         <v>28.423999999999999</v>
       </c>
@@ -3987,7 +4022,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:8" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A178" s="2">
         <v>14.121</v>
       </c>
@@ -4005,7 +4040,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:8" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A179" s="2">
         <v>13.686999999999999</v>
       </c>
@@ -4025,7 +4060,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:8" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A180" s="2">
         <v>38.453000000000003</v>
       </c>
@@ -4045,7 +4080,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="181" spans="1:8" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A181" s="2">
         <v>29.594999999999999</v>
       </c>
@@ -4065,7 +4100,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="182" spans="1:8" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A182" s="2">
         <v>4.4000000000000004</v>
       </c>
@@ -4085,7 +4120,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="183" spans="1:8" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A183" s="2">
         <v>33.148000000000003</v>
       </c>
@@ -4105,7 +4140,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="184" spans="1:8" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A184" s="2">
         <v>6.2460000000000004</v>
       </c>
@@ -4125,7 +4160,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="185" spans="1:8" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A185" s="2">
         <v>9.02</v>
       </c>
@@ -4143,7 +4178,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="186" spans="1:8" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A186" s="2">
         <v>9.9710000000000001</v>
       </c>
@@ -4163,7 +4198,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="187" spans="1:8" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A187" s="2">
         <v>15.7</v>
       </c>
@@ -4181,7 +4216,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="188" spans="1:8" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A188" s="2">
         <v>6</v>
       </c>
@@ -4201,7 +4236,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="189" spans="1:8" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A189" s="2">
         <v>12.762</v>
       </c>
@@ -4221,7 +4256,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="190" spans="1:8" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A190" s="2">
         <v>14.224</v>
       </c>
@@ -4239,7 +4274,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="191" spans="1:8" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A191" s="2">
         <v>9.1</v>
       </c>
@@ -4259,7 +4294,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="192" spans="1:8" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A192" s="2">
         <v>14.343</v>
       </c>
@@ -4281,7 +4316,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="193" spans="1:8" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A193" s="2">
         <v>20</v>
       </c>
@@ -4303,7 +4338,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="194" spans="1:8" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A194" s="2">
         <v>12.65</v>
       </c>
@@ -4323,7 +4358,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="195" spans="1:8" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A195" s="2">
         <v>12.156000000000001</v>
       </c>
@@ -4343,7 +4378,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="196" spans="1:8" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A196" s="2">
         <v>8.5259999999999998</v>
       </c>
@@ -4363,7 +4398,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="197" spans="1:8" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A197" s="2">
         <v>44.14</v>
       </c>
@@ -4383,7 +4418,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="198" spans="1:8" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A198" s="2">
         <v>8.4</v>
       </c>
@@ -4403,7 +4438,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="199" spans="1:8" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A199" s="2">
         <v>16</v>
       </c>
@@ -4423,7 +4458,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="200" spans="1:8" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A200" s="2">
         <v>12.1</v>
       </c>
@@ -4443,7 +4478,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="201" spans="1:8" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A201" s="2">
         <v>85.92</v>
       </c>
@@ -4463,7 +4498,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="202" spans="1:8" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A202" s="2">
         <v>13.366</v>
       </c>
@@ -4483,7 +4518,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="203" spans="1:8" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A203" s="2">
         <v>8.5730000000000004</v>
       </c>
@@ -4505,7 +4540,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="204" spans="1:8" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A204" s="2">
         <v>12</v>
       </c>
@@ -4525,7 +4560,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="205" spans="1:8" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A205" s="2">
         <v>77.704999999999998</v>
       </c>
@@ -4545,7 +4580,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="206" spans="1:8" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A206" s="2">
         <v>29.24</v>
       </c>
@@ -4565,7 +4600,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="207" spans="1:8" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A207" s="2">
         <v>10.695</v>
       </c>
@@ -4585,7 +4620,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="208" spans="1:8" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A208" s="2">
         <v>7.1959999999999997</v>
       </c>
@@ -4605,7 +4640,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="209" spans="1:8" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A209" s="2">
         <v>11.8</v>
       </c>
@@ -4625,7 +4660,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="210" spans="1:8" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A210" s="2">
         <v>16.760000000000002</v>
       </c>
@@ -4645,7 +4680,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="211" spans="1:8" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A211" s="2">
         <v>7.28</v>
       </c>
@@ -4665,7 +4700,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="212" spans="1:8" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A212" s="2">
         <v>13.37</v>
       </c>
@@ -4685,7 +4720,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="213" spans="1:8" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A213" s="2">
         <v>34</v>
       </c>
@@ -4705,7 +4740,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="214" spans="1:8" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A214" s="2">
         <v>10.79</v>
       </c>
@@ -4723,7 +4758,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="215" spans="1:8" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A215" s="2">
         <v>64</v>
       </c>
@@ -4743,7 +4778,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="216" spans="1:8" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A216" s="2">
         <v>23.85</v>
       </c>
@@ -4763,7 +4798,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="217" spans="1:8" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A217" s="2">
         <v>14.11</v>
       </c>
@@ -4783,7 +4818,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="218" spans="1:8" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A218" s="2">
         <v>20.32</v>
       </c>
@@ -4803,7 +4838,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="219" spans="1:8" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A219" s="2">
         <v>7.82</v>
       </c>
@@ -4823,7 +4858,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="220" spans="1:8" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A220" s="2">
         <v>14.82</v>
       </c>
@@ -4843,7 +4878,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="221" spans="1:8" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A221" s="2">
         <v>18.542000000000002</v>
       </c>
@@ -4863,7 +4898,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="222" spans="1:8" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A222" s="2">
         <v>7.11</v>
       </c>
@@ -4883,7 +4918,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="223" spans="1:8" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A223" s="2">
         <v>10.515000000000001</v>
       </c>
@@ -4903,7 +4938,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="224" spans="1:8" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A224" s="2">
         <v>8.16</v>
       </c>
@@ -4925,7 +4960,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="225" spans="1:8" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A225" s="2">
         <v>21</v>
       </c>
@@ -4945,7 +4980,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="226" spans="1:8" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A226" s="2">
         <v>15.3</v>
       </c>
@@ -4965,7 +5000,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="227" spans="1:8" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A227" s="2">
         <v>23</v>
       </c>
@@ -4985,7 +5020,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="228" spans="1:8" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A228" s="2">
         <v>14.205</v>
       </c>
